--- a/docs/PXO - performance - 01.xlsx
+++ b/docs/PXO - performance - 01.xlsx
@@ -5,14 +5,15 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\anandats\OneDrive - Coventry University\coventry-thesis\PAPERS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\anandats\OneDrive - Coventry University\coventry-thesis\GitHub\PXO\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9330"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Performance" sheetId="1" r:id="rId1"/>
+    <sheet name="Terminology" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="35">
   <si>
     <t>Vf = 5%</t>
   </si>
@@ -32,16 +33,10 @@
     <t>N = 1000</t>
   </si>
   <si>
-    <t>q = 128</t>
-  </si>
-  <si>
     <t>ALG = 01</t>
   </si>
   <si>
     <t>CPU time</t>
-  </si>
-  <si>
-    <t>wrt. = 100</t>
   </si>
   <si>
     <t>ALG = 02</t>
@@ -81,6 +76,60 @@
   </si>
   <si>
     <t>ALG = 0101</t>
+  </si>
+  <si>
+    <t>OFC</t>
+  </si>
+  <si>
+    <t>Open for contribution</t>
+  </si>
+  <si>
+    <t>DWI = 100</t>
+  </si>
+  <si>
+    <t>DWI</t>
+  </si>
+  <si>
+    <t>Data Write Interwal (# of Monte-Carlo Steps)</t>
+  </si>
+  <si>
+    <t>Q = 128</t>
+  </si>
+  <si>
+    <t>Q</t>
+  </si>
+  <si>
+    <t>Number of unique allowed states</t>
+  </si>
+  <si>
+    <t>Vf</t>
+  </si>
+  <si>
+    <t>Particle volume fraction (SLSP only)</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>Number  of Montye-Carlo steps</t>
+  </si>
+  <si>
+    <t>AVG</t>
+  </si>
+  <si>
+    <t>Average</t>
+  </si>
+  <si>
+    <t>ST.D / STD</t>
+  </si>
+  <si>
+    <t>Standard deviation</t>
+  </si>
+  <si>
+    <t>ALG</t>
+  </si>
+  <si>
+    <t>Algorithm</t>
   </si>
 </sst>
 </file>
@@ -314,48 +363,129 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -395,10 +525,10 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.158580927384077"/>
-          <c:y val="0.16666666666666666"/>
-          <c:w val="0.78478718285214344"/>
-          <c:h val="0.68055555555555547"/>
+          <c:x val="9.4440913422696685E-2"/>
+          <c:y val="5.2924113794345098E-2"/>
+          <c:w val="0.86593326843327267"/>
+          <c:h val="0.79429809633818782"/>
         </c:manualLayout>
       </c:layout>
       <c:scatterChart>
@@ -413,15 +543,15 @@
           <c:spPr>
             <a:ln w="19050" cap="rnd">
               <a:solidFill>
-                <a:schemeClr val="accent2"/>
+                <a:schemeClr val="tx1"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
+            <c:symbol val="square"/>
+            <c:size val="6"/>
             <c:spPr>
               <a:solidFill>
                 <a:schemeClr val="accent2"/>
@@ -436,7 +566,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$C$3:$C$8</c:f>
+              <c:f>Performance!$G$4:$G$9</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -463,7 +593,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$G$3:$G$8</c:f>
+              <c:f>Performance!$K$4:$K$9</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -496,8 +626,100 @@
           </c:extLst>
         </c:ser>
         <c:ser>
+          <c:idx val="3"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Alg.0101</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:srgbClr val="002060"/>
+              </a:solidFill>
+              <a:prstDash val="sysDot"/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="diamond"/>
+            <c:size val="7"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Performance!$S$4:$S$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>2500</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>40000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>160000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>640000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2560000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Performance!$W$4:$W$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0.38666666666666671</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.96666666666666667</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.14</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>12.116666666666667</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>48.910000000000004</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>194.85500000000002</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-9A35-47E3-B40E-9507E9608EA0}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
           <c:idx val="0"/>
-          <c:order val="1"/>
+          <c:order val="2"/>
           <c:tx>
             <c:v>Alg.02</c:v>
           </c:tx>
@@ -513,10 +735,10 @@
           </c:spPr>
           <c:marker>
             <c:symbol val="circle"/>
-            <c:size val="6"/>
+            <c:size val="4"/>
             <c:spPr>
               <a:solidFill>
-                <a:schemeClr val="bg1"/>
+                <a:schemeClr val="tx1"/>
               </a:solidFill>
               <a:ln w="9525">
                 <a:solidFill>
@@ -528,7 +750,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$K$3:$K$8</c:f>
+              <c:f>Performance!$G$14:$G$19</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -555,7 +777,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$O$3:$O$8</c:f>
+              <c:f>Performance!$K$14:$K$19</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -589,16 +811,16 @@
         </c:ser>
         <c:ser>
           <c:idx val="2"/>
-          <c:order val="2"/>
+          <c:order val="3"/>
           <c:tx>
             <c:v>Alg.02. T = 0</c:v>
           </c:tx>
           <c:spPr>
-            <a:ln w="19050" cap="rnd">
+            <a:ln w="12700" cap="rnd">
               <a:solidFill>
                 <a:srgbClr val="00B050"/>
               </a:solidFill>
-              <a:prstDash val="sysDash"/>
+              <a:prstDash val="solid"/>
               <a:round/>
             </a:ln>
             <a:effectLst/>
@@ -618,7 +840,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$K$13:$K$18</c:f>
+              <c:f>Performance!$G$24:$G$29</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -645,7 +867,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$O$13:$O$18</c:f>
+              <c:f>Performance!$K$24:$K$29</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -712,6 +934,20 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:minorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="5000"/>
+                  <a:lumOff val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:minorGridlines>
         <c:title>
           <c:tx>
             <c:rich>
@@ -739,8 +975,8 @@
             <c:manualLayout>
               <c:xMode val="edge"/>
               <c:yMode val="edge"/>
-              <c:x val="0.35297440944881892"/>
-              <c:y val="0.89814814814814814"/>
+              <c:x val="0.37629796933005355"/>
+              <c:y val="0.73232586567736258"/>
             </c:manualLayout>
           </c:layout>
           <c:overlay val="0"/>
@@ -770,8 +1006,8 @@
           </c:txPr>
         </c:title>
         <c:numFmt formatCode="0.E+00" sourceLinked="0"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
+        <c:majorTickMark val="in"/>
+        <c:minorTickMark val="in"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
@@ -826,6 +1062,20 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:minorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="5000"/>
+                  <a:lumOff val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:minorGridlines>
         <c:title>
           <c:tx>
             <c:rich>
@@ -833,7 +1083,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="tx1"/>
                     </a:solidFill>
@@ -843,14 +1093,14 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en-GB"/>
-                  <a:t>Computer</a:t>
+                  <a:rPr lang="en-GB" sz="1100"/>
+                  <a:t>Solution</a:t>
                 </a:r>
                 <a:r>
-                  <a:rPr lang="en-GB" baseline="0"/>
+                  <a:rPr lang="en-GB" sz="1100" baseline="0"/>
                   <a:t> time in seconds</a:t>
                 </a:r>
-                <a:endParaRPr lang="en-GB"/>
+                <a:endParaRPr lang="en-GB" sz="1100"/>
               </a:p>
             </c:rich>
           </c:tx>
@@ -858,8 +1108,8 @@
             <c:manualLayout>
               <c:xMode val="edge"/>
               <c:yMode val="edge"/>
-              <c:x val="3.7024934383202097E-2"/>
-              <c:y val="0.19178222513852436"/>
+              <c:x val="1.6739746828546457E-2"/>
+              <c:y val="0.26052100370727899"/>
             </c:manualLayout>
           </c:layout>
           <c:overlay val="0"/>
@@ -875,7 +1125,7 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
                     <a:schemeClr val="tx1"/>
                   </a:solidFill>
@@ -889,8 +1139,8 @@
           </c:txPr>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
+        <c:majorTickMark val="in"/>
+        <c:minorTickMark val="in"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
@@ -939,10 +1189,10 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.15549956255468064"/>
-          <c:y val="2.7894429862933799E-2"/>
-          <c:w val="0.78061154855643033"/>
-          <c:h val="0.12939596092155145"/>
+          <c:x val="0.12433111029454642"/>
+          <c:y val="0.17529188620333369"/>
+          <c:w val="0.13987988336354135"/>
+          <c:h val="0.32593009122686079"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="0"/>
@@ -1574,16 +1824,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>228600</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>109538</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>101601</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>3703</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>352425</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>497416</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>137582</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1868,902 +2118,1233 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P35"/>
+  <dimension ref="A1:W37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="F35" sqref="F35"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="S21" sqref="S21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="24" max="24" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="11.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A2" s="24" t="s">
+        <v>15</v>
+      </c>
+      <c r="B2" s="16"/>
+      <c r="C2" s="16"/>
+      <c r="D2" s="8"/>
+      <c r="E2" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="F2" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="E1" s="2" t="s">
+      <c r="G2" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="H2" s="16"/>
+      <c r="I2" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="J2" s="16"/>
+      <c r="K2" s="7"/>
+      <c r="L2" s="5"/>
+      <c r="M2" s="24" t="s">
+        <v>15</v>
+      </c>
+      <c r="N2" s="16"/>
+      <c r="O2" s="16"/>
+      <c r="P2" s="8"/>
+      <c r="Q2" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="R2" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="S2" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="T2" s="16"/>
+      <c r="U2" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="V2" s="16"/>
+      <c r="W2" s="7"/>
+    </row>
+    <row r="3" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="6"/>
+      <c r="C3" s="6"/>
+      <c r="D3" s="14"/>
+      <c r="E3" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="F3" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="G3" s="32"/>
+      <c r="H3" s="21"/>
+      <c r="I3" s="32" t="s">
+        <v>3</v>
+      </c>
+      <c r="J3" s="21"/>
+      <c r="K3" s="33" t="s">
+        <v>7</v>
+      </c>
+      <c r="L3" s="5"/>
+      <c r="M3" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="N3" s="6"/>
+      <c r="O3" s="6"/>
+      <c r="P3" s="14"/>
+      <c r="Q3" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="R3" s="42" t="s">
         <v>16</v>
       </c>
-      <c r="F1" s="6"/>
-      <c r="G1" s="16"/>
-      <c r="I1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="K1" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="M1" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="N1" s="3"/>
-      <c r="O1" s="16"/>
-      <c r="P1" s="6"/>
-    </row>
-    <row r="2" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="13" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" s="24" t="s">
+      <c r="S3" s="42"/>
+      <c r="T3" s="6"/>
+      <c r="U3" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="5"/>
-      <c r="D2" s="6"/>
-      <c r="E2" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="F2" s="6"/>
-      <c r="G2" s="19" t="s">
-        <v>9</v>
-      </c>
-      <c r="I2" s="13" t="s">
-        <v>2</v>
-      </c>
-      <c r="J2" s="25" t="s">
-        <v>6</v>
-      </c>
-      <c r="K2" s="5"/>
-      <c r="L2" s="6"/>
-      <c r="M2" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="N2" s="8"/>
-      <c r="O2" s="19" t="s">
-        <v>9</v>
-      </c>
-      <c r="P2" s="6"/>
-    </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A3" s="15">
+      <c r="V3" s="6"/>
+      <c r="W3" s="12" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A4" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" s="6"/>
+      <c r="C4" s="6"/>
+      <c r="D4" s="14"/>
+      <c r="E4" s="15">
         <v>50</v>
       </c>
-      <c r="B3" s="12">
+      <c r="F4" s="16">
         <v>50</v>
       </c>
-      <c r="C3" s="16">
-        <f>A3*B3</f>
+      <c r="G4" s="7">
+        <f>E4*F4</f>
         <v>2500</v>
       </c>
-      <c r="D3" s="15">
+      <c r="H4" s="15">
         <v>0.48038199999999998</v>
       </c>
-      <c r="E3" s="12">
+      <c r="I4" s="16">
         <v>0.48311500000000002</v>
       </c>
-      <c r="F3" s="3">
+      <c r="J4" s="8">
         <v>0.47390599999999999</v>
       </c>
-      <c r="G3" s="16">
-        <f>AVERAGE(D3:F3)</f>
+      <c r="K4" s="7">
+        <f>AVERAGE(H4:J4)</f>
         <v>0.47913433333333333</v>
       </c>
-      <c r="I3" s="15">
+      <c r="L4" s="5"/>
+      <c r="M4" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="N4" s="6"/>
+      <c r="O4" s="6"/>
+      <c r="P4" s="14"/>
+      <c r="Q4" s="15">
         <v>50</v>
       </c>
-      <c r="J3" s="12">
+      <c r="R4" s="16">
         <v>50</v>
       </c>
-      <c r="K3" s="16">
-        <f>I3*J3</f>
+      <c r="S4" s="7">
+        <f>Q4*R4</f>
         <v>2500</v>
       </c>
-      <c r="L3" s="12">
-        <v>0.73690100000000003</v>
-      </c>
-      <c r="M3" s="12">
-        <v>0.72843400000000003</v>
-      </c>
-      <c r="N3" s="3">
-        <v>0.75441499999999995</v>
-      </c>
-      <c r="O3" s="3">
-        <f>AVERAGE(L3:N3)</f>
-        <v>0.73991666666666667</v>
-      </c>
-      <c r="P3" s="6"/>
-    </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A4" s="7">
+      <c r="T4" s="15">
+        <v>0.41</v>
+      </c>
+      <c r="U4" s="16">
+        <v>0.37</v>
+      </c>
+      <c r="V4" s="8">
+        <v>0.38</v>
+      </c>
+      <c r="W4" s="7">
+        <f>AVERAGE(T4:V4)</f>
+        <v>0.38666666666666671</v>
+      </c>
+    </row>
+    <row r="5" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A5" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" s="6"/>
+      <c r="C5" s="6"/>
+      <c r="D5" s="14"/>
+      <c r="E5" s="17">
         <v>100</v>
       </c>
-      <c r="B4" s="6">
+      <c r="F5" s="6">
         <v>100</v>
       </c>
-      <c r="C4" s="17">
-        <f>A4*B4</f>
+      <c r="G5" s="18">
+        <f>E5*F5</f>
         <v>10000</v>
       </c>
-      <c r="D4" s="7">
+      <c r="H5" s="17">
         <v>1.366584</v>
       </c>
-      <c r="E4" s="6">
+      <c r="I5" s="6">
         <v>1.3560859999999999</v>
       </c>
-      <c r="F4" s="8">
+      <c r="J5" s="14">
         <v>1.37707</v>
       </c>
-      <c r="G4" s="17">
-        <f t="shared" ref="G4:G8" si="0">AVERAGE(D4:F4)</f>
+      <c r="K5" s="18">
+        <f t="shared" ref="K5:K9" si="0">AVERAGE(H5:J5)</f>
         <v>1.3665799999999999</v>
       </c>
-      <c r="I4" s="7">
+      <c r="L5" s="5"/>
+      <c r="M5" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="N5" s="6"/>
+      <c r="O5" s="6"/>
+      <c r="P5" s="14"/>
+      <c r="Q5" s="17">
         <v>100</v>
       </c>
-      <c r="J4" s="6">
+      <c r="R5" s="6">
         <v>100</v>
       </c>
-      <c r="K4" s="17">
-        <f>I4*J4</f>
+      <c r="S5" s="18">
+        <f>Q5*R5</f>
         <v>10000</v>
       </c>
-      <c r="L4" s="6">
-        <v>2.3462399999999999</v>
-      </c>
-      <c r="M4" s="6">
-        <v>2.2790300000000001</v>
-      </c>
-      <c r="N4" s="8">
-        <v>2.3117999999999999</v>
-      </c>
-      <c r="O4" s="8">
-        <f t="shared" ref="O4:O8" si="1">AVERAGE(L4:N4)</f>
-        <v>2.3123566666666666</v>
-      </c>
-      <c r="P4" s="6"/>
-    </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A5" s="7">
+      <c r="T5" s="17">
+        <v>0.94</v>
+      </c>
+      <c r="U5" s="19">
+        <v>0.99</v>
+      </c>
+      <c r="V5" s="14">
+        <v>0.97</v>
+      </c>
+      <c r="W5" s="18">
+        <f t="shared" ref="W5:W9" si="1">AVERAGE(T5:V5)</f>
+        <v>0.96666666666666667</v>
+      </c>
+    </row>
+    <row r="6" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="20" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" s="21"/>
+      <c r="C6" s="21"/>
+      <c r="D6" s="23"/>
+      <c r="E6" s="17">
         <v>200</v>
       </c>
-      <c r="B5" s="6">
+      <c r="F6" s="6">
         <v>200</v>
       </c>
-      <c r="C5" s="17">
-        <f t="shared" ref="C5:C8" si="2">A5*B5</f>
+      <c r="G6" s="18">
+        <f t="shared" ref="G6:G9" si="2">E6*F6</f>
         <v>40000</v>
       </c>
-      <c r="D5" s="7">
+      <c r="H6" s="17">
         <v>4.6546979999999998</v>
       </c>
-      <c r="E5" s="6">
+      <c r="I6" s="6">
         <v>4.6473930000000001</v>
       </c>
-      <c r="F5" s="8">
+      <c r="J6" s="14">
         <v>4.6524470000000004</v>
       </c>
-      <c r="G5" s="17">
+      <c r="K6" s="18">
         <f t="shared" si="0"/>
         <v>4.6515126666666671</v>
       </c>
-      <c r="I5" s="7">
+      <c r="L6" s="5"/>
+      <c r="M6" s="20" t="s">
+        <v>13</v>
+      </c>
+      <c r="N6" s="21"/>
+      <c r="O6" s="21"/>
+      <c r="P6" s="23"/>
+      <c r="Q6" s="17">
         <v>200</v>
       </c>
-      <c r="J5" s="6">
+      <c r="R6" s="6">
         <v>200</v>
       </c>
-      <c r="K5" s="17">
-        <f t="shared" ref="K5:K8" si="3">I5*J5</f>
+      <c r="S6" s="18">
+        <f t="shared" ref="S6:S9" si="3">Q6*R6</f>
         <v>40000</v>
       </c>
-      <c r="L5" s="6">
-        <v>8.4516469999999995</v>
-      </c>
-      <c r="M5" s="6">
-        <v>8.4002479999999995</v>
-      </c>
-      <c r="N5" s="8">
-        <v>8.8527830000000005</v>
-      </c>
-      <c r="O5" s="8">
+      <c r="T6" s="17">
+        <v>3.09</v>
+      </c>
+      <c r="U6" s="19">
+        <v>3.22</v>
+      </c>
+      <c r="V6" s="14">
+        <v>3.11</v>
+      </c>
+      <c r="W6" s="18">
         <f t="shared" si="1"/>
-        <v>8.568226000000001</v>
-      </c>
-      <c r="P5" s="6"/>
-    </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A6" s="7">
+        <v>3.14</v>
+      </c>
+    </row>
+    <row r="7" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="E7" s="17">
         <v>400</v>
       </c>
-      <c r="B6" s="6">
+      <c r="F7" s="6">
         <v>400</v>
       </c>
-      <c r="C6" s="17">
+      <c r="G7" s="18">
         <f t="shared" si="2"/>
         <v>160000</v>
       </c>
-      <c r="D6" s="7">
+      <c r="H7" s="17">
         <v>17.072897000000001</v>
       </c>
-      <c r="E6" s="6">
+      <c r="I7" s="6">
         <v>16.470095000000001</v>
       </c>
-      <c r="F6" s="8">
+      <c r="J7" s="14">
         <v>17.270146</v>
       </c>
-      <c r="G6" s="17">
+      <c r="K7" s="18">
         <f t="shared" si="0"/>
         <v>16.937712666666666</v>
       </c>
-      <c r="I6" s="7">
+      <c r="L7" s="5"/>
+      <c r="Q7" s="17">
         <v>400</v>
       </c>
-      <c r="J6" s="6">
+      <c r="R7" s="6">
         <v>400</v>
       </c>
-      <c r="K6" s="17">
+      <c r="S7" s="18">
         <f t="shared" si="3"/>
         <v>160000</v>
       </c>
-      <c r="L6" s="6">
-        <v>32.014879999999998</v>
-      </c>
-      <c r="M6" s="6">
-        <v>31.608393</v>
-      </c>
-      <c r="N6" s="8">
-        <v>32.065640000000002</v>
-      </c>
-      <c r="O6" s="8">
+      <c r="T7" s="17">
+        <v>12.09</v>
+      </c>
+      <c r="U7" s="19">
+        <v>12.14</v>
+      </c>
+      <c r="V7" s="14">
+        <v>12.12</v>
+      </c>
+      <c r="W7" s="18">
         <f t="shared" si="1"/>
-        <v>31.896304333333333</v>
-      </c>
-      <c r="P6" s="6"/>
-    </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A7" s="7">
+        <v>12.116666666666667</v>
+      </c>
+    </row>
+    <row r="8" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="E8" s="17">
         <v>800</v>
       </c>
-      <c r="B7" s="6">
+      <c r="F8" s="6">
         <v>800</v>
       </c>
-      <c r="C7" s="17">
+      <c r="G8" s="18">
         <f t="shared" si="2"/>
         <v>640000</v>
       </c>
-      <c r="D7" s="7">
+      <c r="H8" s="17">
         <v>69.358367000000001</v>
       </c>
-      <c r="E7" s="6">
+      <c r="I8" s="6">
         <v>67.876739999999998</v>
       </c>
-      <c r="F7" s="8">
+      <c r="J8" s="14">
         <v>69.703577999999993</v>
       </c>
-      <c r="G7" s="17">
+      <c r="K8" s="18">
         <f t="shared" si="0"/>
         <v>68.979561666666669</v>
       </c>
-      <c r="I7" s="7">
+      <c r="L8" s="5"/>
+      <c r="Q8" s="17">
         <v>800</v>
       </c>
-      <c r="J7" s="6">
+      <c r="R8" s="6">
         <v>800</v>
       </c>
-      <c r="K7" s="17">
+      <c r="S8" s="18">
         <f t="shared" si="3"/>
         <v>640000</v>
       </c>
-      <c r="L7" s="6">
-        <v>131.28654800000001</v>
-      </c>
-      <c r="M7" s="20">
-        <v>128.18982199999999</v>
-      </c>
-      <c r="N7" s="8">
-        <v>137.69078300000001</v>
-      </c>
-      <c r="O7" s="8">
+      <c r="T8" s="17">
+        <v>48.85</v>
+      </c>
+      <c r="U8" s="19">
+        <v>49.1</v>
+      </c>
+      <c r="V8" s="14">
+        <v>48.78</v>
+      </c>
+      <c r="W8" s="18">
         <f t="shared" si="1"/>
-        <v>132.38905099999999</v>
-      </c>
-      <c r="P7" s="6"/>
-    </row>
-    <row r="8" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="9">
+        <v>48.910000000000004</v>
+      </c>
+    </row>
+    <row r="9" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E9" s="20">
         <v>1600</v>
       </c>
-      <c r="B8" s="10">
+      <c r="F9" s="21">
         <v>1600</v>
       </c>
-      <c r="C8" s="18">
+      <c r="G9" s="22">
         <f t="shared" si="2"/>
         <v>2560000</v>
       </c>
-      <c r="D8" s="9">
+      <c r="H9" s="20">
         <v>267.364419</v>
       </c>
-      <c r="E8" s="10"/>
-      <c r="F8" s="11"/>
-      <c r="G8" s="18">
+      <c r="I9" s="21" t="s">
+        <v>17</v>
+      </c>
+      <c r="J9" s="21" t="s">
+        <v>17</v>
+      </c>
+      <c r="K9" s="22">
         <f t="shared" si="0"/>
         <v>267.364419</v>
       </c>
-      <c r="I8" s="9">
+      <c r="L9" s="5"/>
+      <c r="Q9" s="20">
         <v>1600</v>
       </c>
-      <c r="J8" s="10">
+      <c r="R9" s="21">
         <v>1600</v>
       </c>
-      <c r="K8" s="18">
+      <c r="S9" s="22">
         <f t="shared" si="3"/>
         <v>2560000</v>
       </c>
-      <c r="L8" s="10">
-        <v>533.76370399999996</v>
-      </c>
-      <c r="M8" s="10">
-        <v>536.69365600000003</v>
-      </c>
-      <c r="N8" s="11"/>
-      <c r="O8" s="11">
+      <c r="T9" s="20">
+        <v>194.66</v>
+      </c>
+      <c r="U9" s="21">
+        <v>195.05</v>
+      </c>
+      <c r="V9" s="23" t="s">
+        <v>17</v>
+      </c>
+      <c r="W9" s="22">
         <f t="shared" si="1"/>
-        <v>535.22867999999994</v>
-      </c>
-      <c r="P8" s="6"/>
-    </row>
-    <row r="9" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="P9" s="6"/>
-    </row>
-    <row r="10" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C10" s="21" t="s">
-        <v>17</v>
-      </c>
-      <c r="D10" s="12"/>
-      <c r="E10" s="12"/>
-      <c r="F10" s="3"/>
-      <c r="P10" s="6"/>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="C11" s="7" t="s">
+        <v>194.85500000000002</v>
+      </c>
+    </row>
+    <row r="10" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="E10" s="5"/>
+      <c r="F10" s="5"/>
+      <c r="G10" s="5"/>
+      <c r="H10" s="5"/>
+      <c r="I10" s="5"/>
+      <c r="J10" s="5"/>
+      <c r="K10" s="5"/>
+      <c r="L10" s="5"/>
+      <c r="M10" s="5"/>
+      <c r="N10" s="5"/>
+      <c r="O10" s="5"/>
+      <c r="P10" s="5"/>
+      <c r="Q10" s="5"/>
+      <c r="R10" s="5"/>
+      <c r="S10" s="5"/>
+      <c r="T10" s="1"/>
+    </row>
+    <row r="11" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E11" s="5"/>
+      <c r="F11" s="5"/>
+      <c r="K11" s="5"/>
+      <c r="L11" s="5"/>
+      <c r="M11" s="5"/>
+      <c r="N11" s="5"/>
+      <c r="O11" s="5"/>
+      <c r="P11" s="5"/>
+      <c r="Q11" s="5"/>
+      <c r="R11" s="5"/>
+      <c r="S11" s="5"/>
+      <c r="T11" s="1"/>
+    </row>
+    <row r="12" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A12" s="24" t="s">
+        <v>15</v>
+      </c>
+      <c r="B12" s="16"/>
+      <c r="C12" s="16"/>
+      <c r="D12" s="8"/>
+      <c r="E12" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="F12" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="G12" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="H12" s="16"/>
+      <c r="I12" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="J12" s="8"/>
+      <c r="K12" s="7"/>
+      <c r="L12" s="5"/>
+    </row>
+    <row r="13" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="B13" s="6"/>
+      <c r="C13" s="6"/>
+      <c r="D13" s="14"/>
+      <c r="E13" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="F13" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="G13" s="32"/>
+      <c r="H13" s="21"/>
+      <c r="I13" s="32" t="s">
+        <v>3</v>
+      </c>
+      <c r="J13" s="23"/>
+      <c r="K13" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="L13" s="5"/>
+    </row>
+    <row r="14" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A14" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="B14" s="6"/>
+      <c r="C14" s="6"/>
+      <c r="D14" s="14"/>
+      <c r="E14" s="15">
+        <v>50</v>
+      </c>
+      <c r="F14" s="16">
+        <v>50</v>
+      </c>
+      <c r="G14" s="7">
+        <f>E14*F14</f>
+        <v>2500</v>
+      </c>
+      <c r="H14" s="16">
+        <v>0.73690100000000003</v>
+      </c>
+      <c r="I14" s="16">
+        <v>0.72843400000000003</v>
+      </c>
+      <c r="J14" s="8">
+        <v>0.75441499999999995</v>
+      </c>
+      <c r="K14" s="8">
+        <f>AVERAGE(H14:J14)</f>
+        <v>0.73991666666666667</v>
+      </c>
+      <c r="L14" s="5"/>
+    </row>
+    <row r="15" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A15" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="D11" s="6"/>
-      <c r="E11" s="6"/>
-      <c r="F11" s="8"/>
-      <c r="I11" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="J11" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="K11" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="L11" s="12"/>
-      <c r="M11" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="N11" s="3"/>
-      <c r="O11" s="16"/>
-    </row>
-    <row r="12" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C12" s="7" t="s">
+      <c r="B15" s="6"/>
+      <c r="C15" s="6"/>
+      <c r="D15" s="14"/>
+      <c r="E15" s="17">
+        <v>100</v>
+      </c>
+      <c r="F15" s="6">
+        <v>100</v>
+      </c>
+      <c r="G15" s="18">
+        <f>E15*F15</f>
+        <v>10000</v>
+      </c>
+      <c r="H15" s="6">
+        <v>2.3462399999999999</v>
+      </c>
+      <c r="I15" s="6">
+        <v>2.2790300000000001</v>
+      </c>
+      <c r="J15" s="14">
+        <v>2.3117999999999999</v>
+      </c>
+      <c r="K15" s="14">
+        <f t="shared" ref="K15:K19" si="4">AVERAGE(H15:J15)</f>
+        <v>2.3123566666666666</v>
+      </c>
+      <c r="L15" s="5"/>
+    </row>
+    <row r="16" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="D12" s="6"/>
-      <c r="E12" s="6"/>
-      <c r="F12" s="8"/>
-      <c r="I12" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="J12" s="27" t="s">
-        <v>7</v>
-      </c>
-      <c r="K12" s="5"/>
-      <c r="L12" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="M12" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="N12" s="8"/>
-      <c r="O12" s="19" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="C13" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="D13" s="6"/>
-      <c r="E13" s="6"/>
-      <c r="F13" s="8"/>
-      <c r="I13" s="15">
-        <v>50</v>
-      </c>
-      <c r="J13" s="12">
-        <v>50</v>
-      </c>
-      <c r="K13" s="16">
-        <f>I13*J13</f>
-        <v>2500</v>
-      </c>
-      <c r="L13" s="12">
-        <v>0.80406100000000003</v>
-      </c>
-      <c r="M13" s="23">
-        <v>0.77556499999999995</v>
-      </c>
-      <c r="N13" s="12">
-        <v>0.78299300000000005</v>
-      </c>
-      <c r="O13" s="16">
-        <f>AVERAGE(L13:N13)</f>
-        <v>0.78753966666666664</v>
-      </c>
-    </row>
-    <row r="14" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C14" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="D14" s="10"/>
-      <c r="E14" s="10"/>
-      <c r="F14" s="11"/>
-      <c r="I14" s="7">
-        <v>100</v>
-      </c>
-      <c r="J14" s="6">
-        <v>100</v>
-      </c>
-      <c r="K14" s="17">
-        <f>I14*J14</f>
-        <v>10000</v>
-      </c>
-      <c r="L14" s="6">
-        <v>2.3710680000000002</v>
-      </c>
-      <c r="M14" s="20">
-        <v>2.5000599999999999</v>
-      </c>
-      <c r="N14" s="6">
-        <v>2.37182</v>
-      </c>
-      <c r="O14" s="8">
-        <f t="shared" ref="O14:O15" si="4">AVERAGE(L14:N14)</f>
-        <v>2.4143159999999999</v>
-      </c>
-    </row>
-    <row r="15" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="I15" s="7">
+      <c r="B16" s="21"/>
+      <c r="C16" s="21"/>
+      <c r="D16" s="23"/>
+      <c r="E16" s="17">
         <v>200</v>
       </c>
-      <c r="J15" s="6">
+      <c r="F16" s="6">
         <v>200</v>
       </c>
-      <c r="K15" s="17">
-        <f t="shared" ref="K15:K16" si="5">I15*J15</f>
+      <c r="G16" s="18">
+        <f t="shared" ref="G16:G19" si="5">E16*F16</f>
         <v>40000</v>
       </c>
-      <c r="L15" s="6">
-        <v>8.7488849999999996</v>
-      </c>
-      <c r="M15" s="20">
-        <v>8.9065940000000001</v>
-      </c>
-      <c r="N15" s="6">
-        <v>9.1710080000000005</v>
-      </c>
-      <c r="O15" s="8">
+      <c r="H16" s="6">
+        <v>8.4516469999999995</v>
+      </c>
+      <c r="I16" s="6">
+        <v>8.4002479999999995</v>
+      </c>
+      <c r="J16" s="14">
+        <v>8.8527830000000005</v>
+      </c>
+      <c r="K16" s="14">
         <f t="shared" si="4"/>
-        <v>8.942162333333334</v>
-      </c>
-    </row>
-    <row r="16" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="I16" s="28">
+        <v>8.568226000000001</v>
+      </c>
+      <c r="L16" s="5"/>
+    </row>
+    <row r="17" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="E17" s="17">
         <v>400</v>
       </c>
-      <c r="J16" s="29">
+      <c r="F17" s="6">
         <v>400</v>
       </c>
-      <c r="K16" s="30">
+      <c r="G17" s="18">
         <f t="shared" si="5"/>
         <v>160000</v>
       </c>
-      <c r="L16" s="29">
+      <c r="H17" s="6">
+        <v>32.014879999999998</v>
+      </c>
+      <c r="I17" s="6">
+        <v>31.608393</v>
+      </c>
+      <c r="J17" s="14">
+        <v>32.065640000000002</v>
+      </c>
+      <c r="K17" s="14">
+        <f t="shared" si="4"/>
+        <v>31.896304333333333</v>
+      </c>
+      <c r="L17" s="5"/>
+    </row>
+    <row r="18" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="E18" s="17">
+        <v>800</v>
+      </c>
+      <c r="F18" s="6">
+        <v>800</v>
+      </c>
+      <c r="G18" s="18">
+        <f t="shared" si="5"/>
+        <v>640000</v>
+      </c>
+      <c r="H18" s="6">
+        <v>131.28654800000001</v>
+      </c>
+      <c r="I18" s="19">
+        <v>128.18982199999999</v>
+      </c>
+      <c r="J18" s="14">
+        <v>137.69078300000001</v>
+      </c>
+      <c r="K18" s="14">
+        <f t="shared" si="4"/>
+        <v>132.38905099999999</v>
+      </c>
+      <c r="L18" s="5"/>
+    </row>
+    <row r="19" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E19" s="20">
+        <v>1600</v>
+      </c>
+      <c r="F19" s="21">
+        <v>1600</v>
+      </c>
+      <c r="G19" s="22">
+        <f t="shared" si="5"/>
+        <v>2560000</v>
+      </c>
+      <c r="H19" s="21">
+        <v>533.76370399999996</v>
+      </c>
+      <c r="I19" s="21">
+        <v>536.69365600000003</v>
+      </c>
+      <c r="J19" s="23" t="s">
+        <v>17</v>
+      </c>
+      <c r="K19" s="23">
+        <f t="shared" si="4"/>
+        <v>535.22867999999994</v>
+      </c>
+      <c r="L19" s="5"/>
+    </row>
+    <row r="20" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="E20" s="5"/>
+      <c r="F20" s="5"/>
+      <c r="G20" s="5"/>
+      <c r="H20" s="5"/>
+      <c r="I20" s="5"/>
+      <c r="J20" s="5"/>
+      <c r="K20" s="5"/>
+      <c r="L20" s="5"/>
+    </row>
+    <row r="21" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E21" s="5"/>
+      <c r="F21" s="5"/>
+      <c r="G21" s="5"/>
+      <c r="H21" s="5"/>
+      <c r="I21" s="5"/>
+      <c r="J21" s="5"/>
+      <c r="K21" s="5"/>
+      <c r="L21" s="5"/>
+    </row>
+    <row r="22" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A22" s="24" t="s">
+        <v>15</v>
+      </c>
+      <c r="B22" s="16"/>
+      <c r="C22" s="16"/>
+      <c r="D22" s="8"/>
+      <c r="E22" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="F22" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="G22" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="H22" s="16"/>
+      <c r="I22" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="J22" s="8"/>
+      <c r="K22" s="7"/>
+      <c r="L22" s="5"/>
+    </row>
+    <row r="23" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="B23" s="6"/>
+      <c r="C23" s="6"/>
+      <c r="D23" s="14"/>
+      <c r="E23" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="F23" s="26" t="s">
+        <v>5</v>
+      </c>
+      <c r="G23" s="11"/>
+      <c r="H23" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="I23" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="J23" s="14"/>
+      <c r="K23" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="L23" s="5"/>
+    </row>
+    <row r="24" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A24" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="B24" s="6"/>
+      <c r="C24" s="6"/>
+      <c r="D24" s="14"/>
+      <c r="E24" s="15">
+        <v>50</v>
+      </c>
+      <c r="F24" s="16">
+        <v>50</v>
+      </c>
+      <c r="G24" s="7">
+        <f>E24*F24</f>
+        <v>2500</v>
+      </c>
+      <c r="H24" s="16">
+        <v>0.80406100000000003</v>
+      </c>
+      <c r="I24" s="27">
+        <v>0.77556499999999995</v>
+      </c>
+      <c r="J24" s="16">
+        <v>0.78299300000000005</v>
+      </c>
+      <c r="K24" s="7">
+        <f>AVERAGE(H24:J24)</f>
+        <v>0.78753966666666664</v>
+      </c>
+      <c r="L24" s="5"/>
+    </row>
+    <row r="25" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A25" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="B25" s="6"/>
+      <c r="C25" s="6"/>
+      <c r="D25" s="14"/>
+      <c r="E25" s="17">
+        <v>100</v>
+      </c>
+      <c r="F25" s="6">
+        <v>100</v>
+      </c>
+      <c r="G25" s="18">
+        <f>E25*F25</f>
+        <v>10000</v>
+      </c>
+      <c r="H25" s="6">
+        <v>2.3710680000000002</v>
+      </c>
+      <c r="I25" s="19">
+        <v>2.5000599999999999</v>
+      </c>
+      <c r="J25" s="6">
+        <v>2.37182</v>
+      </c>
+      <c r="K25" s="14">
+        <f t="shared" ref="K25:K26" si="6">AVERAGE(H25:J25)</f>
+        <v>2.4143159999999999</v>
+      </c>
+      <c r="L25" s="5"/>
+    </row>
+    <row r="26" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="20" t="s">
+        <v>13</v>
+      </c>
+      <c r="B26" s="21"/>
+      <c r="C26" s="21"/>
+      <c r="D26" s="23"/>
+      <c r="E26" s="17">
+        <v>200</v>
+      </c>
+      <c r="F26" s="6">
+        <v>200</v>
+      </c>
+      <c r="G26" s="18">
+        <f t="shared" ref="G26:G27" si="7">E26*F26</f>
+        <v>40000</v>
+      </c>
+      <c r="H26" s="6">
+        <v>8.7488849999999996</v>
+      </c>
+      <c r="I26" s="19">
+        <v>8.9065940000000001</v>
+      </c>
+      <c r="J26" s="6">
+        <v>9.1710080000000005</v>
+      </c>
+      <c r="K26" s="14">
+        <f t="shared" si="6"/>
+        <v>8.942162333333334</v>
+      </c>
+      <c r="L26" s="5"/>
+      <c r="M26" s="5"/>
+      <c r="N26" s="5"/>
+      <c r="O26" s="5"/>
+      <c r="P26" s="5"/>
+      <c r="Q26" s="5"/>
+      <c r="R26" s="5"/>
+      <c r="S26" s="5"/>
+    </row>
+    <row r="27" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E27" s="28">
+        <v>400</v>
+      </c>
+      <c r="F27" s="29">
+        <v>400</v>
+      </c>
+      <c r="G27" s="30">
+        <f t="shared" si="7"/>
+        <v>160000</v>
+      </c>
+      <c r="H27" s="29">
         <v>34.260838999999997</v>
       </c>
-      <c r="M16" s="29">
+      <c r="I27" s="29">
         <v>34.688516</v>
       </c>
-      <c r="N16" s="29">
+      <c r="J27" s="29">
         <v>34.194705999999996</v>
       </c>
-      <c r="O16" s="30">
-        <f t="shared" ref="O16:O17" si="6">AVERAGE(L16:N16)</f>
+      <c r="K27" s="30">
+        <f t="shared" ref="K27:K28" si="8">AVERAGE(H27:J27)</f>
         <v>34.381353666666662</v>
       </c>
-    </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="I17" s="7">
+      <c r="L27" s="5"/>
+      <c r="M27" s="5"/>
+      <c r="N27" s="5"/>
+      <c r="O27" s="5"/>
+      <c r="P27" s="5"/>
+      <c r="Q27" s="5"/>
+      <c r="R27" s="5"/>
+      <c r="S27" s="5"/>
+    </row>
+    <row r="28" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="E28" s="17">
         <v>800</v>
       </c>
-      <c r="J17" s="6">
+      <c r="F28" s="6">
         <v>800</v>
       </c>
-      <c r="K17" s="17">
-        <f t="shared" ref="K17:K18" si="7">I17*J17</f>
+      <c r="G28" s="18">
+        <f t="shared" ref="G28:G29" si="9">E28*F28</f>
         <v>640000</v>
       </c>
-      <c r="L17" s="6">
+      <c r="H28" s="15">
         <v>135.28157999999999</v>
       </c>
-      <c r="M17" s="6"/>
-      <c r="N17" s="6"/>
-      <c r="O17" s="8">
-        <f t="shared" si="6"/>
+      <c r="I28" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="J28" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="K28" s="14">
+        <f t="shared" si="8"/>
         <v>135.28157999999999</v>
       </c>
-    </row>
-    <row r="18" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="I18" s="9">
+      <c r="L28" s="5"/>
+      <c r="M28" s="5"/>
+      <c r="N28" s="5"/>
+      <c r="O28" s="5"/>
+      <c r="P28" s="5"/>
+      <c r="Q28" s="5"/>
+      <c r="R28" s="5"/>
+      <c r="S28" s="5"/>
+    </row>
+    <row r="29" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E29" s="20">
         <v>1600</v>
       </c>
-      <c r="J18" s="10">
+      <c r="F29" s="21">
         <v>1600</v>
       </c>
-      <c r="K18" s="18">
-        <f t="shared" si="7"/>
+      <c r="G29" s="22">
+        <f t="shared" si="9"/>
         <v>2560000</v>
       </c>
-      <c r="L18" s="10">
+      <c r="H29" s="20">
         <v>534.52259700000002</v>
       </c>
-      <c r="M18" s="10"/>
-      <c r="N18" s="10"/>
-      <c r="O18" s="18">
-        <f t="shared" ref="O18" si="8">AVERAGE(L18:N18)</f>
+      <c r="I29" s="21" t="s">
+        <v>17</v>
+      </c>
+      <c r="J29" s="23" t="s">
+        <v>17</v>
+      </c>
+      <c r="K29" s="23">
+        <f t="shared" ref="K29" si="10">AVERAGE(H29:J29)</f>
         <v>534.52259700000002</v>
       </c>
-    </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="I19" s="4" t="s">
+      <c r="L29" s="5"/>
+      <c r="M29" s="5"/>
+      <c r="N29" s="5"/>
+      <c r="O29" s="5"/>
+      <c r="P29" s="5"/>
+      <c r="Q29" s="5"/>
+      <c r="R29" s="5"/>
+      <c r="S29" s="5"/>
+    </row>
+    <row r="30" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="E30" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="J19" s="5" t="s">
+      <c r="F30" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="K19" s="5" t="s">
+      <c r="G30" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="H30" s="6"/>
+      <c r="I30" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="J30" s="14"/>
+      <c r="K30" s="18"/>
+      <c r="L30" s="5"/>
+      <c r="M30" s="5"/>
+      <c r="N30" s="5"/>
+      <c r="O30" s="5"/>
+      <c r="P30" s="5"/>
+      <c r="Q30" s="5"/>
+      <c r="R30" s="5"/>
+      <c r="S30" s="5"/>
+    </row>
+    <row r="31" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E31" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="F31" s="31" t="s">
         <v>5</v>
       </c>
-      <c r="L19" s="6"/>
-      <c r="M19" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="N19" s="8"/>
-      <c r="O19" s="17"/>
-    </row>
-    <row r="20" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="I20" s="13" t="s">
-        <v>2</v>
-      </c>
-      <c r="J20" s="26" t="s">
+      <c r="G31" s="32"/>
+      <c r="H31" s="32" t="s">
+        <v>8</v>
+      </c>
+      <c r="I31" s="32" t="s">
+        <v>3</v>
+      </c>
+      <c r="J31" s="23"/>
+      <c r="K31" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="K20" s="14"/>
-      <c r="L20" s="14" t="s">
-        <v>10</v>
-      </c>
-      <c r="M20" s="14" t="s">
-        <v>4</v>
-      </c>
-      <c r="N20" s="11"/>
-      <c r="O20" s="22" t="s">
+      <c r="L31" s="5"/>
+      <c r="M31" s="5"/>
+      <c r="N31" s="5"/>
+      <c r="O31" s="5"/>
+      <c r="P31" s="5"/>
+      <c r="Q31" s="5"/>
+      <c r="R31" s="5"/>
+      <c r="S31" s="5"/>
+    </row>
+    <row r="32" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E32" s="34">
+        <v>400</v>
+      </c>
+      <c r="F32" s="35">
+        <v>400</v>
+      </c>
+      <c r="G32" s="36">
+        <f t="shared" ref="G32" si="11">E32*F32</f>
+        <v>160000</v>
+      </c>
+      <c r="H32" s="37">
+        <v>33.276392999999999</v>
+      </c>
+      <c r="I32" s="37">
+        <v>33.498077000000002</v>
+      </c>
+      <c r="J32" s="35">
+        <v>34.475006999999998</v>
+      </c>
+      <c r="K32" s="35">
+        <f t="shared" ref="K32" si="12">AVERAGE(H32:J32)</f>
+        <v>33.749825666666673</v>
+      </c>
+      <c r="L32" s="5"/>
+      <c r="M32" s="5"/>
+      <c r="N32" s="5"/>
+      <c r="O32" s="5"/>
+      <c r="P32" s="5"/>
+      <c r="Q32" s="5"/>
+      <c r="R32" s="5"/>
+      <c r="S32" s="5"/>
+    </row>
+    <row r="33" spans="5:19" x14ac:dyDescent="0.25">
+      <c r="E33" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="F33" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="G33" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="H33" s="16"/>
+      <c r="I33" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="J33" s="8"/>
+      <c r="K33" s="7"/>
+      <c r="L33" s="5"/>
+      <c r="M33" s="5"/>
+      <c r="N33" s="5"/>
+      <c r="O33" s="5"/>
+      <c r="P33" s="5"/>
+      <c r="Q33" s="5"/>
+      <c r="R33" s="5"/>
+      <c r="S33" s="5"/>
+    </row>
+    <row r="34" spans="5:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E34" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="F34" s="31" t="s">
+        <v>5</v>
+      </c>
+      <c r="G34" s="32"/>
+      <c r="H34" s="32" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="21" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="I21" s="31">
+      <c r="I34" s="32" t="s">
+        <v>3</v>
+      </c>
+      <c r="J34" s="23"/>
+      <c r="K34" s="33" t="s">
+        <v>7</v>
+      </c>
+      <c r="L34" s="5"/>
+      <c r="M34" s="5"/>
+      <c r="N34" s="5"/>
+      <c r="O34" s="5"/>
+      <c r="P34" s="5"/>
+      <c r="Q34" s="5"/>
+      <c r="R34" s="5"/>
+      <c r="S34" s="5"/>
+    </row>
+    <row r="35" spans="5:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E35" s="38">
         <v>400</v>
       </c>
-      <c r="J21" s="32">
+      <c r="F35" s="39">
         <v>400</v>
       </c>
-      <c r="K21" s="33">
-        <f t="shared" ref="K21" si="9">I21*J21</f>
+      <c r="G35" s="40">
+        <f t="shared" ref="G35" si="13">E35*F35</f>
         <v>160000</v>
       </c>
-      <c r="L21" s="34">
-        <v>33.276392999999999</v>
-      </c>
-      <c r="M21" s="34">
-        <v>33.498077000000002</v>
-      </c>
-      <c r="N21" s="32">
-        <v>34.475006999999998</v>
-      </c>
-      <c r="O21" s="32">
-        <f t="shared" ref="O21" si="10">AVERAGE(L21:N21)</f>
-        <v>33.749825666666673</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="I22" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="J22" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="K22" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="L22" s="12"/>
-      <c r="M22" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="N22" s="3"/>
-      <c r="O22" s="16"/>
-    </row>
-    <row r="23" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="I23" s="13" t="s">
-        <v>2</v>
-      </c>
-      <c r="J23" s="26" t="s">
-        <v>7</v>
-      </c>
-      <c r="K23" s="14"/>
-      <c r="L23" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="M23" s="14" t="s">
-        <v>4</v>
-      </c>
-      <c r="N23" s="11"/>
-      <c r="O23" s="22" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="I24" s="35">
-        <v>400</v>
-      </c>
-      <c r="J24" s="36">
-        <v>400</v>
-      </c>
-      <c r="K24" s="37">
-        <f t="shared" ref="K24" si="11">I24*J24</f>
-        <v>160000</v>
-      </c>
-      <c r="L24" s="38">
+      <c r="H35" s="41">
         <v>33.135426000000002</v>
       </c>
-      <c r="M24" s="38">
+      <c r="I35" s="41">
         <v>33.890940999999998</v>
       </c>
-      <c r="N24" s="36">
+      <c r="J35" s="39">
         <v>33.865042000000003</v>
       </c>
-      <c r="O24" s="30">
-        <f t="shared" ref="O24" si="12">AVERAGE(L24:N24)</f>
+      <c r="K35" s="30">
+        <f t="shared" ref="K35" si="14">AVERAGE(H35:J35)</f>
         <v>33.630469666666663</v>
       </c>
-    </row>
-    <row r="27" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A28" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B28" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C28" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="E28" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="F28" s="6"/>
-      <c r="G28" s="16"/>
-    </row>
-    <row r="29" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="13" t="s">
-        <v>2</v>
-      </c>
-      <c r="B29" s="39" t="s">
-        <v>18</v>
-      </c>
-      <c r="C29" s="39"/>
-      <c r="D29" s="6"/>
-      <c r="E29" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="F29" s="6"/>
-      <c r="G29" s="19" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A30" s="15">
-        <v>50</v>
-      </c>
-      <c r="B30" s="12">
-        <v>50</v>
-      </c>
-      <c r="C30" s="16">
-        <f>A30*B30</f>
-        <v>2500</v>
-      </c>
-      <c r="D30" s="15">
-        <v>0.41</v>
-      </c>
-      <c r="E30" s="12">
-        <v>0.37</v>
-      </c>
-      <c r="F30" s="3">
-        <v>0.38</v>
-      </c>
-      <c r="G30" s="16">
-        <f>AVERAGE(D30:F30)</f>
-        <v>0.38666666666666671</v>
-      </c>
-    </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A31" s="7">
-        <v>100</v>
-      </c>
-      <c r="B31" s="6">
-        <v>100</v>
-      </c>
-      <c r="C31" s="17">
-        <f>A31*B31</f>
-        <v>10000</v>
-      </c>
-      <c r="D31" s="7">
-        <v>0.94</v>
-      </c>
-      <c r="E31" s="20">
-        <v>0.99</v>
-      </c>
-      <c r="F31" s="8">
-        <v>0.97</v>
-      </c>
-      <c r="G31" s="17">
-        <f t="shared" ref="G31:G35" si="13">AVERAGE(D31:F31)</f>
-        <v>0.96666666666666667</v>
-      </c>
-    </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A32" s="7">
-        <v>200</v>
-      </c>
-      <c r="B32" s="6">
-        <v>200</v>
-      </c>
-      <c r="C32" s="17">
-        <f t="shared" ref="C32:C35" si="14">A32*B32</f>
-        <v>40000</v>
-      </c>
-      <c r="D32" s="7">
-        <v>3.09</v>
-      </c>
-      <c r="E32" s="20">
-        <v>3.22</v>
-      </c>
-      <c r="F32" s="8">
-        <v>3.11</v>
-      </c>
-      <c r="G32" s="17">
-        <f t="shared" si="13"/>
-        <v>3.14</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A33" s="7">
-        <v>400</v>
-      </c>
-      <c r="B33" s="6">
-        <v>400</v>
-      </c>
-      <c r="C33" s="17">
-        <f t="shared" si="14"/>
-        <v>160000</v>
-      </c>
-      <c r="D33" s="7">
-        <v>12.09</v>
-      </c>
-      <c r="E33" s="20">
-        <v>12.14</v>
-      </c>
-      <c r="F33" s="8">
-        <v>12.12</v>
-      </c>
-      <c r="G33" s="17">
-        <f t="shared" si="13"/>
-        <v>12.116666666666667</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A34" s="7">
-        <v>800</v>
-      </c>
-      <c r="B34" s="6">
-        <v>800</v>
-      </c>
-      <c r="C34" s="17">
-        <f t="shared" si="14"/>
-        <v>640000</v>
-      </c>
-      <c r="D34" s="7">
-        <v>48.85</v>
-      </c>
-      <c r="E34" s="20">
-        <v>49.1</v>
-      </c>
-      <c r="F34" s="8">
-        <v>48.78</v>
-      </c>
-      <c r="G34" s="17">
-        <f t="shared" si="13"/>
-        <v>48.910000000000004</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="9">
-        <v>1600</v>
-      </c>
-      <c r="B35" s="10">
-        <v>1600</v>
-      </c>
-      <c r="C35" s="18">
-        <f t="shared" si="14"/>
-        <v>2560000</v>
-      </c>
-      <c r="D35" s="9"/>
-      <c r="E35" s="10"/>
-      <c r="F35" s="11"/>
-      <c r="G35" s="18" t="e">
-        <f t="shared" si="13"/>
-        <v>#DIV/0!</v>
-      </c>
+      <c r="L35" s="5"/>
+      <c r="M35" s="5"/>
+      <c r="N35" s="5"/>
+      <c r="O35" s="5"/>
+      <c r="P35" s="5"/>
+      <c r="Q35" s="5"/>
+      <c r="R35" s="5"/>
+      <c r="S35" s="5"/>
+    </row>
+    <row r="36" spans="5:19" x14ac:dyDescent="0.25">
+      <c r="L36" s="5"/>
+      <c r="M36" s="5"/>
+      <c r="N36" s="5"/>
+      <c r="O36" s="5"/>
+      <c r="P36" s="5"/>
+      <c r="Q36" s="5"/>
+      <c r="R36" s="5"/>
+      <c r="S36" s="5"/>
+    </row>
+    <row r="37" spans="5:19" x14ac:dyDescent="0.25">
+      <c r="I37" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="R3:S3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K10" sqref="K10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="9.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1" t="s">
+        <v>18</v>
+      </c>
+      <c r="I1" t="s">
+        <v>23</v>
+      </c>
+      <c r="J1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B2" t="s">
+        <v>21</v>
+      </c>
+      <c r="I2" t="s">
+        <v>25</v>
+      </c>
+      <c r="J2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B3" t="s">
+        <v>30</v>
+      </c>
+      <c r="I3" t="s">
+        <v>27</v>
+      </c>
+      <c r="J3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>31</v>
+      </c>
+      <c r="B4" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>33</v>
+      </c>
+      <c r="B5" t="s">
+        <v>34</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101003F07EA60D4A401438B17C201A45914CB" ma:contentTypeVersion="15" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="eea1212e0916be43780b4690f06542d3">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns3="abfbc5b7-ac3c-422a-81dc-68de4dccffbb" xmlns:ns4="04bfbb7d-124c-4ad9-971c-3ff9ab8646de" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="59770f3f5a2460da718dbac3af509e84" ns1:_="" ns3:_="" ns4:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -3003,6 +3584,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
@@ -3013,14 +3603,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6291ECB4-7D6D-4144-89C1-C71A7A65C3BC}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{023C3A5F-3718-421E-8BB4-7F2BBD3F4E86}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -3040,18 +3622,26 @@
 </ds:datastoreItem>
 </file>
 
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6291ECB4-7D6D-4144-89C1-C71A7A65C3BC}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1CF82F54-1FD1-44E8-983E-331D5241003E}">
   <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
     <ds:schemaRef ds:uri="abfbc5b7-ac3c-422a-81dc-68de4dccffbb"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="04bfbb7d-124c-4ad9-971c-3ff9ab8646de"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="04bfbb7d-124c-4ad9-971c-3ff9ab8646de"/>
     <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
   </ds:schemaRefs>
